--- a/data/prepr/metrics/Energy_sector_base_metrics.xlsx
+++ b/data/prepr/metrics/Energy_sector_base_metrics.xlsx
@@ -476,8 +476,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.326</v>
@@ -505,8 +507,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.434</v>
@@ -534,8 +538,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.31</v>
@@ -563,8 +569,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EOG</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.319</v>
@@ -592,8 +600,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.376</v>
@@ -621,8 +631,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.408</v>
@@ -650,8 +662,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.359</v>
@@ -679,8 +693,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.25</v>
@@ -708,8 +724,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.366</v>
@@ -737,8 +755,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HES</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.366</v>
@@ -766,8 +786,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0.363</v>
@@ -795,8 +817,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>OKE</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.366</v>
@@ -824,8 +848,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0.245</v>
@@ -853,8 +879,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.319</v>
@@ -882,8 +910,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.349</v>
@@ -911,8 +941,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.29</v>
@@ -940,8 +972,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0.353</v>
@@ -969,8 +1003,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.361</v>
@@ -998,8 +1034,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.041</v>
@@ -1027,8 +1065,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.104</v>
@@ -1056,8 +1096,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>MRO</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.342</v>
@@ -1085,8 +1127,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.26</v>
